--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,7 +566,337 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45735.92259413212</v>
+        <v>45735.92259413195</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45735.9544002662</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45735.95449295139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45735.9545329051</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45735.95455835648</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45735.95455964121</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45735.95650885416</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45735.95661969907</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45735.95668149306</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45735.95671054398</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45735.95672408565</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45735.95673371528</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45735.95674752315</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45735.95675637732</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45735.95735918982</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45735.95736503472</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45735.95737634259</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45735.9573828588</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45735.95780239583</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45735.95784375</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45735.95787296296</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45735.9578852662</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45735.95789425926</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45735.95790657408</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>45735.95791350694</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45735.95822385417</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45735.9582303588</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45735.95823895833</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45735.95828128472</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45735.95909799769</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45735.95920408565</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45735.95926295139</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45735.95927793982</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>El Kevin</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45735.95928535519</v>
       </c>
     </row>
   </sheetData>

--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -896,7 +896,77 @@
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45735.95928535519</v>
+        <v>45735.9592853588</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45735.96236638889</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45735.9624050463</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45735.96248350695</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>45735.96248461805</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>45735.96259039352</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>45735.96260510416</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>45735.96277708487</v>
       </c>
     </row>
   </sheetData>

--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,7 +966,227 @@
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>45735.96277708487</v>
+        <v>45735.96277708333</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>45735.96462568287</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>45735.96465396991</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>45735.96465576389</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>45735.96465761574</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>45735.96465920139</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>45735.96466092593</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>45735.96466273148</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>45735.96466434028</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>45735.96466599537</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>45735.96466791667</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>45735.96467282408</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>45735.96467512732</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>45735.96467731481</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>45735.96468119213</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>45735.96468372685</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>45735.96468569445</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>45735.96470547454</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>45735.9647071875</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>45735.96473335648</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>45735.96475530093</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>45735.96477335648</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>45735.96752236925</v>
       </c>
     </row>
   </sheetData>
